--- a/GL220_Script_AccountMonitor_21B.xlsx
+++ b/GL220_Script_AccountMonitor_21B.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GL Scripts Batch2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3DC48C-60DE-464E-836D-0A8EF1876164}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59932F5-D003-4119-8F53-40671B3981EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="AllObjects" sheetId="29" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AccountMonitor!$A$1:$M$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AccountMonitor!$A$1:$M$107</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AllObjects!$A$1:$D$3</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="483">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -174,9 +174,6 @@
     <t>Step 13</t>
   </si>
   <si>
-    <t>Step 14</t>
-  </si>
-  <si>
     <t>//div[contains(@id,'TLpanelform')][@class='x19']</t>
   </si>
   <si>
@@ -765,30 +762,12 @@
     <t>Check the Default</t>
   </si>
   <si>
-    <t>Check DataAccessSet is asked</t>
-  </si>
-  <si>
-    <t>check DataAccessSet</t>
-  </si>
-  <si>
     <t>DataAccessSet</t>
   </si>
   <si>
-    <t>Enter the DataAccessSet</t>
-  </si>
-  <si>
-    <t>DataAccessSet entered</t>
-  </si>
-  <si>
     <t>SelectItemByVisibleText</t>
   </si>
   <si>
-    <t>Click on ChangeDataAccessSetOk</t>
-  </si>
-  <si>
-    <t>Clicked on ChangeDataAccessSetOk</t>
-  </si>
-  <si>
     <t>ChangeDataAccessSetOk</t>
   </si>
   <si>
@@ -1347,9 +1326,6 @@
     <t>Click on Arrow</t>
   </si>
   <si>
-    <t>Exists||Step 15-Step 17||Step 18-Step 19</t>
-  </si>
-  <si>
     <t>//*[contains(@id,'clusters-right-nav')]</t>
   </si>
   <si>
@@ -1371,9 +1347,6 @@
     <t>Fultr1</t>
   </si>
   <si>
-    <t>0000</t>
-  </si>
-  <si>
     <t>Fultr2</t>
   </si>
   <si>
@@ -1402,6 +1375,105 @@
   </si>
   <si>
     <t>WaitForDuration</t>
+  </si>
+  <si>
+    <t>Delayed</t>
+  </si>
+  <si>
+    <t>Wait</t>
+  </si>
+  <si>
+    <t>waitforAccessSet</t>
+  </si>
+  <si>
+    <t>Check filter clicked</t>
+  </si>
+  <si>
+    <t>check filter</t>
+  </si>
+  <si>
+    <t>ChangeDataAccessSetLink</t>
+  </si>
+  <si>
+    <t>Exists||Step 17-Step 23||Step 24-Step 25</t>
+  </si>
+  <si>
+    <t>Explicit wait for SelectDataAccessSet</t>
+  </si>
+  <si>
+    <t>Click on DataAccessOk</t>
+  </si>
+  <si>
+    <t>Clicked on DataAccessOk</t>
+  </si>
+  <si>
+    <t>Enter SelectDataAccessSet</t>
+  </si>
+  <si>
+    <t>SelectDataAccessSet entered</t>
+  </si>
+  <si>
+    <t>SelectDataAccessSet</t>
+  </si>
+  <si>
+    <t>DataAccessOk</t>
+  </si>
+  <si>
+    <t>VerifyText</t>
+  </si>
+  <si>
+    <t>VerifyDataAccessSet</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'FONSr2:0:_FOTsr2:0:cl1')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'_FONSr2:0:_FOTsr2:0:soc1::content')]</t>
+  </si>
+  <si>
+    <t>//tr/td[2][text()='Data Access Set']</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'_FONSr2:0:_FOTsr2:0:pgl1')]/tbody/tr/td[5]</t>
+  </si>
+  <si>
+    <t>//button[text()='OK']</t>
+  </si>
+  <si>
+    <t>INEN</t>
+  </si>
+  <si>
+    <t>Future1</t>
+  </si>
+  <si>
+    <t>Future2</t>
+  </si>
+  <si>
+    <t>Step 91</t>
+  </si>
+  <si>
+    <t>Step 92</t>
+  </si>
+  <si>
+    <t>Step 93</t>
+  </si>
+  <si>
+    <t>Step 94</t>
+  </si>
+  <si>
+    <t>Step 95</t>
+  </si>
+  <si>
+    <t>Step 96</t>
+  </si>
+  <si>
+    <t>Step 97</t>
+  </si>
+  <si>
+    <t>Step 98</t>
+  </si>
+  <si>
+    <t>Exists||Step 87-Step 88||Step 89-Step 90</t>
   </si>
 </sst>
 </file>
@@ -1604,7 +1676,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="51">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1863,6 +1935,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9831,7 +9921,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -9853,6 +9943,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="45" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7827">
     <cellStyle name=" 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -17683,7 +17782,337 @@
     <cellStyle name="Warning Text 9" xfId="5939" xr:uid="{00000000-0005-0000-0000-0000911E0000}"/>
     <cellStyle name="Warning Text 9 2" xfId="7821" xr:uid="{00000000-0005-0000-0000-0000921E0000}"/>
   </cellStyles>
-  <dxfs count="148">
+  <dxfs count="181">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -19508,10 +19937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N93"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -19574,7 +20003,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -19592,19 +20021,19 @@
         <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="K2" s="5"/>
     </row>
@@ -19632,14 +20061,14 @@
         <v>27</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="K3" s="12"/>
       <c r="M3" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -19651,10 +20080,10 @@
         <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>24</v>
@@ -19673,7 +20102,7 @@
       </c>
       <c r="K4" s="12"/>
       <c r="M4" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -19682,32 +20111,32 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K5" s="13"/>
       <c r="M5" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -19719,29 +20148,29 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K6" s="13"/>
       <c r="M6" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -19750,13 +20179,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>24</v>
@@ -19775,7 +20204,7 @@
       </c>
       <c r="K7" s="12"/>
       <c r="M7" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -19784,7 +20213,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>37</v>
@@ -19802,14 +20231,14 @@
         <v>30</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="K8" s="12"/>
       <c r="M8" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -19818,7 +20247,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>43</v>
@@ -19840,24 +20269,22 @@
       </c>
       <c r="K9" s="12"/>
       <c r="M9" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="4" t="s">
-        <v>263</v>
-      </c>
+      <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>24</v>
@@ -19866,34 +20293,32 @@
         <v>35</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="K10" s="12"/>
       <c r="M10" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="4" t="s">
-        <v>263</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>24</v>
@@ -19902,26 +20327,24 @@
         <v>21</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="I11" s="2"/>
       <c r="K11" s="12"/>
       <c r="M11" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="4" t="s">
-        <v>263</v>
-      </c>
+      <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>34</v>
@@ -19933,34 +20356,32 @@
         <v>35</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="K12" s="14"/>
       <c r="M12" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="4" t="s">
-        <v>263</v>
-      </c>
+      <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>24</v>
@@ -19969,18 +20390,16 @@
         <v>21</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="I13" s="2"/>
       <c r="K13" s="14"/>
       <c r="M13" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="4" t="s">
-        <v>263</v>
-      </c>
+      <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
@@ -19988,7 +20407,7 @@
         <v>46</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>34</v>
@@ -20000,23 +20419,21 @@
         <v>35</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="K14" s="14"/>
       <c r="M14" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="4" t="s">
-        <v>263</v>
-      </c>
+      <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
@@ -20024,10 +20441,10 @@
         <v>47</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>24</v>
@@ -20036,454 +20453,453 @@
         <v>21</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K15" s="14"/>
       <c r="M15" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>458</v>
+      <c r="D16" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>449</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="K16" s="14"/>
+        <v>61</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>428</v>
+      </c>
       <c r="M16" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>247</v>
+        <v>56</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>451</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>348</v>
+        <v>35</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="K17" s="14"/>
+        <v>452</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="K17" s="2"/>
       <c r="M17" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>249</v>
+        <v>453</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>250</v>
+        <v>454</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>251</v>
+        <v>341</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>62</v>
+        <v>455</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="K18" s="13"/>
+        <v>456</v>
+      </c>
       <c r="M18" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>252</v>
+        <v>457</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>253</v>
+        <v>34</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="K19" s="14"/>
+        <v>455</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>426</v>
+      </c>
       <c r="M19" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="G20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="K20" s="12"/>
+      <c r="E20" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="J20" s="17"/>
       <c r="M20" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>458</v>
+        <v>451</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>449</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="K21" s="14"/>
+        <v>61</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="K21" s="2"/>
       <c r="M21" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="K22" s="13"/>
+        <v>461</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="K22" s="5"/>
       <c r="M22" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>34</v>
+      <c r="D23" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>451</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>24</v>
+        <v>448</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>135</v>
+        <v>449</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="K23" s="14"/>
+        <v>61</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="K23" s="2"/>
       <c r="M23" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>138</v>
+        <v>100</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>451</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>24</v>
+        <v>448</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="K24" s="14"/>
+        <v>449</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="K24" s="2"/>
       <c r="M24" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>101</v>
+        <v>337</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>141</v>
+        <v>458</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>34</v>
+        <v>459</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="K25" s="14"/>
+        <v>463</v>
+      </c>
+      <c r="J25" s="17"/>
       <c r="M25" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>101</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>451</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>24</v>
+        <v>448</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="K26" s="14"/>
+        <v>449</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="K26" s="2"/>
       <c r="M26" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>102</v>
+        <v>338</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>145</v>
+        <v>458</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>34</v>
+        <v>459</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>35</v>
+        <v>464</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="K27" s="14"/>
+        <v>465</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>462</v>
+      </c>
       <c r="M27" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>60</v>
+        <v>101</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>451</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>24</v>
+        <v>448</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="K28" s="14"/>
+        <v>449</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="K28" s="2"/>
       <c r="M28" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>34</v>
@@ -20495,426 +20911,432 @@
         <v>35</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="K29" s="14"/>
       <c r="M29" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K30" s="13"/>
+        <v>134</v>
+      </c>
+      <c r="K30" s="14"/>
       <c r="M30" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>96</v>
+        <v>139</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>425</v>
       </c>
       <c r="K31" s="14"/>
       <c r="M31" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>104</v>
+        <v>337</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K32" s="13"/>
+        <v>139</v>
+      </c>
+      <c r="K32" s="14"/>
       <c r="M32" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>458</v>
+        <v>101</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="K33" s="12"/>
+        <v>426</v>
+      </c>
+      <c r="K33" s="14"/>
       <c r="M33" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>244</v>
+        <v>338</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K34" s="12"/>
+        <v>142</v>
+      </c>
+      <c r="K34" s="14"/>
       <c r="M34" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>458</v>
+        <v>65</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="K35" s="12"/>
+        <v>426</v>
+      </c>
+      <c r="K35" s="14"/>
       <c r="M35" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="4"/>
+      <c r="A36" s="4" t="s">
+        <v>256</v>
+      </c>
       <c r="B36" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>244</v>
+        <v>66</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="K36" s="12"/>
+        <v>60</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" s="13"/>
       <c r="M36" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="K37" s="12"/>
+        <v>102</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K37" s="14"/>
       <c r="M37" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>350</v>
+        <v>103</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="I38" s="2"/>
-      <c r="K38" s="12"/>
+        <v>60</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K38" s="13"/>
       <c r="M38" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="H39" s="4"/>
+        <v>449</v>
+      </c>
       <c r="I39" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="K39" s="12"/>
       <c r="M39" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>189</v>
+        <v>105</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="K40" s="14"/>
+        <v>316</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K40" s="12"/>
       <c r="M40" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="4"/>
+      <c r="A41" s="4" t="s">
+        <v>256</v>
+      </c>
       <c r="B41" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>258</v>
+        <v>176</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>449</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="K41" s="14"/>
+        <v>427</v>
+      </c>
+      <c r="K41" s="12"/>
       <c r="M41" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="4"/>
       <c r="B42" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>261</v>
+        <v>177</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>24</v>
@@ -20922,62 +21344,60 @@
       <c r="G42" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="K42" s="14"/>
+      <c r="H42" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="K42" s="12"/>
       <c r="M42" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="4" t="s">
-        <v>263</v>
-      </c>
+      <c r="A43" s="4"/>
       <c r="B43" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>458</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="H43" s="4"/>
       <c r="I43" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="K43" s="12"/>
       <c r="M43" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="4" t="s">
-        <v>263</v>
-      </c>
+      <c r="A44" s="4"/>
       <c r="B44" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>192</v>
+        <v>179</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>24</v>
@@ -20985,337 +21405,319 @@
       <c r="G44" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K44" s="14"/>
+      <c r="H44" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="K44" s="12"/>
       <c r="M44" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="4" t="s">
-        <v>263</v>
-      </c>
+      <c r="A45" s="4"/>
       <c r="B45" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>458</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="H45" s="4"/>
       <c r="I45" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="K45" s="12"/>
       <c r="M45" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>34</v>
+        <v>188</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>61</v>
+      <c r="G46" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="K46" s="14"/>
       <c r="M46" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="4" t="s">
-        <v>263</v>
-      </c>
+      <c r="A47" s="4"/>
       <c r="B47" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>458</v>
+        <v>182</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="K47" s="12"/>
+        <v>425</v>
+      </c>
+      <c r="K47" s="14"/>
       <c r="M47" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="4" t="s">
-        <v>263</v>
-      </c>
+      <c r="A48" s="4"/>
       <c r="B48" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>158</v>
+        <v>253</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>158</v>
+        <v>254</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K48" s="12"/>
+        <v>251</v>
+      </c>
+      <c r="K48" s="14"/>
       <c r="M48" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>24</v>
+        <v>184</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>448</v>
       </c>
       <c r="G49" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="J49" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="K49" s="14"/>
+        <v>427</v>
+      </c>
+      <c r="K49" s="12"/>
       <c r="M49" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>386</v>
+        <v>185</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K50" s="12"/>
+        <v>150</v>
+      </c>
+      <c r="K50" s="14"/>
       <c r="M50" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>387</v>
+        <v>106</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="K51" s="12"/>
       <c r="M51" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B52" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>379</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>379</v>
+        <v>34</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G52" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I52" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H52" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="J52" s="2" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="K52" s="14"/>
       <c r="M52" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>389</v>
+        <v>219</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="K53" s="12"/>
       <c r="M53" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>390</v>
+        <v>220</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>24</v>
@@ -21324,484 +21726,477 @@
         <v>45</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>355</v>
+        <v>152</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K54" s="12"/>
       <c r="M54" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>24</v>
+        <v>221</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>448</v>
       </c>
       <c r="G55" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="I55" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H55" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="J55" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K55" s="14"/>
+        <v>427</v>
+      </c>
+      <c r="K55" s="12"/>
       <c r="M55" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="2" t="s">
-        <v>263</v>
+      <c r="A56" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="H56"/>
-      <c r="I56" s="2" t="s">
-        <v>62</v>
+      <c r="E56" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="K56"/>
+        <v>156</v>
+      </c>
+      <c r="K56" s="14"/>
       <c r="M56" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I57" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="J57" s="2" t="s">
-        <v>158</v>
+        <v>427</v>
       </c>
       <c r="K57" s="12"/>
       <c r="M57" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>382</v>
+        <v>157</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>383</v>
+        <v>157</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G58" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="G58" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I58" s="2"/>
       <c r="J58" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="K58" s="14"/>
+        <v>157</v>
+      </c>
+      <c r="K58" s="12"/>
       <c r="M58" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="2" t="s">
-        <v>263</v>
+      <c r="A59" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="H59"/>
+        <v>382</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>449</v>
+      </c>
       <c r="I59" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="K59"/>
+        <v>427</v>
+      </c>
+      <c r="K59" s="12"/>
       <c r="M59" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E60" s="2" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="I60" s="2"/>
+      <c r="G60" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="J60" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K60" s="12"/>
+        <v>347</v>
+      </c>
+      <c r="K60" s="14"/>
       <c r="M60" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>384</v>
+        <v>157</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>384</v>
+        <v>157</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G61" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="G61" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I61" s="2"/>
       <c r="J61" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K61" s="14"/>
+        <v>157</v>
+      </c>
+      <c r="K61" s="12"/>
       <c r="M61" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="2" t="s">
-        <v>263</v>
+      <c r="A62" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="H62"/>
+        <v>385</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>449</v>
+      </c>
       <c r="I62" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="K62"/>
+        <v>427</v>
+      </c>
+      <c r="K62" s="12"/>
       <c r="M62" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>158</v>
+        <v>372</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>158</v>
+        <v>372</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I63" s="2"/>
+      <c r="G63" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="J63" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K63" s="12"/>
+        <v>64</v>
+      </c>
+      <c r="K63" s="14"/>
       <c r="M63" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>24</v>
+        <v>387</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>448</v>
       </c>
       <c r="G64" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="I64" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H64" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="J64" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K64" s="14"/>
+        <v>427</v>
+      </c>
+      <c r="K64" s="12"/>
       <c r="M64" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="2" t="s">
-        <v>263</v>
+      <c r="A65" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="H65"/>
-      <c r="I65" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I65" s="2"/>
       <c r="J65" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="K65"/>
+        <v>157</v>
+      </c>
+      <c r="K65" s="12"/>
       <c r="M65" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>158</v>
+        <v>373</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>158</v>
+        <v>374</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I66" s="2"/>
+      <c r="G66" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="J66" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K66" s="12"/>
+        <v>80</v>
+      </c>
+      <c r="K66" s="14"/>
       <c r="M66" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="D67" t="s">
-        <v>346</v>
-      </c>
-      <c r="E67" t="s">
-        <v>347</v>
-      </c>
-      <c r="F67" t="s">
-        <v>24</v>
-      </c>
-      <c r="G67" t="s">
+        <v>390</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H67"/>
+      <c r="I67" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H67" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="J67" s="2" t="s">
-        <v>315</v>
+        <v>428</v>
       </c>
       <c r="K67"/>
       <c r="M67" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>24</v>
@@ -21810,194 +22205,206 @@
         <v>45</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K68" s="12"/>
       <c r="M68" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="2" t="s">
-        <v>263</v>
+      <c r="A69" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="H69"/>
-      <c r="I69" s="2" t="s">
-        <v>62</v>
+        <v>392</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="K69"/>
+        <v>349</v>
+      </c>
+      <c r="K69" s="14"/>
       <c r="M69" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="70" spans="1:13">
+      <c r="A70" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="B70" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="I70" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H70"/>
+      <c r="I70" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="J70" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K70" s="12"/>
+        <v>428</v>
+      </c>
+      <c r="K70"/>
       <c r="M70" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="71" spans="1:13">
+      <c r="A71" s="4" t="s">
+        <v>256</v>
+      </c>
       <c r="B71" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I71" s="2"/>
       <c r="J71" s="2" t="s">
-        <v>435</v>
+        <v>157</v>
       </c>
       <c r="K71" s="12"/>
       <c r="M71" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="2" t="s">
-        <v>263</v>
+      <c r="A72" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>446</v>
+        <v>377</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>446</v>
+        <v>377</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="G72" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I72" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H72" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="I72" s="2"/>
       <c r="J72" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="K72" s="12"/>
+        <v>82</v>
+      </c>
+      <c r="K72" s="14"/>
       <c r="M72" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>458</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H73"/>
       <c r="I73" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="K73" s="12"/>
+        <v>428</v>
+      </c>
+      <c r="K73"/>
       <c r="M73" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="2" t="s">
-        <v>263</v>
+      <c r="A74" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>444</v>
+        <v>157</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>444</v>
+        <v>157</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>24</v>
@@ -22006,550 +22413,540 @@
         <v>45</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>447</v>
+        <v>82</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K74" s="12"/>
       <c r="M74" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="75" spans="1:13">
-      <c r="A75" s="2" t="s">
-        <v>263</v>
+      <c r="A75" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>457</v>
+        <v>398</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="K75" s="12"/>
+        <v>83</v>
+      </c>
+      <c r="K75" s="14"/>
       <c r="M75" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G76" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H76"/>
+      <c r="I76" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H76" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="I76" s="2"/>
       <c r="J76" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="K76" s="12"/>
+        <v>428</v>
+      </c>
+      <c r="K76"/>
       <c r="M76" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="2" t="s">
-        <v>263</v>
+      <c r="A77" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I77" s="2"/>
       <c r="J77" s="2" t="s">
-        <v>435</v>
+        <v>157</v>
       </c>
       <c r="K77" s="12"/>
       <c r="M77" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F78" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D78" t="s">
+        <v>339</v>
+      </c>
+      <c r="E78" t="s">
+        <v>340</v>
+      </c>
+      <c r="F78" t="s">
         <v>24</v>
       </c>
-      <c r="G78" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="I78" s="2"/>
+      <c r="G78" t="s">
+        <v>60</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="J78" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K78" s="12"/>
+        <v>471</v>
+      </c>
+      <c r="K78"/>
       <c r="M78" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="2" t="s">
-        <v>263</v>
+      <c r="A79" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="I79" s="2"/>
       <c r="J79" s="2" t="s">
-        <v>433</v>
+        <v>157</v>
       </c>
       <c r="K79" s="12"/>
       <c r="M79" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="4" t="s">
-        <v>263</v>
+      <c r="A80" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>159</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H80"/>
       <c r="I80" s="2" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K80" s="12"/>
+        <v>428</v>
+      </c>
+      <c r="K80"/>
       <c r="M80" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="B81" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>169</v>
+        <v>436</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>167</v>
+        <v>436</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="I81" s="2"/>
       <c r="J81" s="2" t="s">
-        <v>433</v>
+        <v>157</v>
       </c>
       <c r="K81" s="12"/>
       <c r="M81" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="B82" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>166</v>
+        <v>405</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>449</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>22</v>
+        <v>428</v>
       </c>
       <c r="K82" s="12"/>
       <c r="M82" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="F83" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="H83"/>
+        <v>406</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>439</v>
+      </c>
       <c r="I83" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="K83"/>
+        <v>472</v>
+      </c>
+      <c r="K83" s="12"/>
       <c r="M83" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="4" t="s">
-        <v>263</v>
+      <c r="A84" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>453</v>
+        <v>407</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>449</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>22</v>
+        <v>428</v>
       </c>
       <c r="K84" s="12"/>
       <c r="M84" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="4" t="s">
-        <v>263</v>
+      <c r="A85" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>286</v>
+        <v>436</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>285</v>
+        <v>436</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="I85" s="2"/>
       <c r="J85" s="2" t="s">
-        <v>433</v>
+        <v>157</v>
       </c>
       <c r="K85" s="12"/>
       <c r="M85" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="4"/>
+      <c r="A86" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="B86" s="6" t="s">
-        <v>456</v>
+        <v>154</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>86</v>
+        <v>409</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>449</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="K86" s="12"/>
       <c r="M86" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="87" spans="1:13">
-      <c r="A87" s="4"/>
+      <c r="A87" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="B87" s="6" t="s">
-        <v>456</v>
+        <v>154</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>110</v>
+        <v>438</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>111</v>
+        <v>438</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>86</v>
+        <v>440</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>22</v>
+        <v>473</v>
       </c>
       <c r="K87" s="12"/>
       <c r="M87" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="4"/>
+      <c r="A88" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="B88" s="6" t="s">
-        <v>456</v>
+        <v>154</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>89</v>
+        <v>411</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>449</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="K88" s="12"/>
       <c r="M88" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="4"/>
+      <c r="A89" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="B89" s="6" t="s">
-        <v>456</v>
+        <v>154</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>114</v>
+        <v>436</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>115</v>
+        <v>436</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="I89" s="2"/>
       <c r="J89" s="2" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="K89" s="12"/>
       <c r="M89" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="90" spans="1:13">
-      <c r="A90" s="4"/>
+      <c r="A90" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="B90" s="6" t="s">
-        <v>456</v>
+        <v>154</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>24</v>
@@ -22558,100 +22955,115 @@
         <v>35</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="K90" s="12"/>
       <c r="M90" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="4"/>
+      <c r="A91" s="4" t="s">
+        <v>256</v>
+      </c>
       <c r="B91" s="6" t="s">
-        <v>456</v>
+        <v>154</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="K91" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="K91" s="12"/>
+      <c r="M91" s="2" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="4"/>
+      <c r="A92" s="4" t="s">
+        <v>256</v>
+      </c>
       <c r="B92" s="6" t="s">
-        <v>456</v>
+        <v>154</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K92" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="K92" s="12"/>
+      <c r="M92" s="2" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="93" spans="1:13">
-      <c r="A93" s="4"/>
+      <c r="A93" s="4" t="s">
+        <v>256</v>
+      </c>
       <c r="B93" s="6" t="s">
-        <v>456</v>
+        <v>154</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>123</v>
+        <v>21</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>22</v>
@@ -22659,336 +23071,879 @@
       <c r="J93" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K93" s="2"/>
+      <c r="K93" s="12"/>
+      <c r="M93" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H94"/>
+      <c r="I94" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="K94"/>
+      <c r="M94" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="K95" s="12"/>
+      <c r="M95" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K96" s="12"/>
+      <c r="M96" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H97"/>
+      <c r="I97" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="K97"/>
+      <c r="M97" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H98"/>
+      <c r="I98" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="K98"/>
+      <c r="M98" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="K99" s="12"/>
+      <c r="M99" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="4"/>
+      <c r="B100" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="K100" s="12"/>
+      <c r="M100" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" s="4"/>
+      <c r="B101" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K101" s="12"/>
+      <c r="M101" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="4"/>
+      <c r="B102" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="K102" s="12"/>
+      <c r="M102" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" s="4"/>
+      <c r="B103" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K103" s="12"/>
+      <c r="M103" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="4"/>
+      <c r="B104" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="K104" s="12"/>
+      <c r="M104" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" s="4"/>
+      <c r="B105" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="K105" s="2"/>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" s="4"/>
+      <c r="B106" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K106" s="2"/>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" s="4"/>
+      <c r="B107" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K107" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="H8">
-    <cfRule type="duplicateValues" dxfId="147" priority="773"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="803"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="duplicateValues" dxfId="146" priority="798"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="828"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="duplicateValues" dxfId="145" priority="746"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="776"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="duplicateValues" dxfId="144" priority="747"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="777"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H13">
-    <cfRule type="duplicateValues" dxfId="143" priority="735"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="765"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:J13">
-    <cfRule type="duplicateValues" dxfId="142" priority="736"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="766"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="duplicateValues" dxfId="174" priority="763"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="duplicateValues" dxfId="173" priority="764"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="duplicateValues" dxfId="172" priority="691"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35">
+    <cfRule type="duplicateValues" dxfId="171" priority="692"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51">
+    <cfRule type="duplicateValues" dxfId="170" priority="518"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="duplicateValues" dxfId="169" priority="519"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49">
+    <cfRule type="duplicateValues" dxfId="168" priority="320"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="duplicateValues" dxfId="167" priority="321"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="duplicateValues" dxfId="166" priority="312"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
+    <cfRule type="duplicateValues" dxfId="165" priority="313"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39">
+    <cfRule type="duplicateValues" dxfId="164" priority="282"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="duplicateValues" dxfId="163" priority="283"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="duplicateValues" dxfId="162" priority="200"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="duplicateValues" dxfId="161" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="202"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41">
+    <cfRule type="duplicateValues" dxfId="159" priority="198"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="duplicateValues" dxfId="158" priority="199"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J67 J78 J80">
+    <cfRule type="duplicateValues" dxfId="157" priority="156"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67 H78:I78 H80">
+    <cfRule type="duplicateValues" dxfId="156" priority="157"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="155" priority="150"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="154" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="152"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="duplicateValues" dxfId="152" priority="149"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H7">
+    <cfRule type="duplicateValues" dxfId="151" priority="153"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="150" priority="145"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="duplicateValues" dxfId="149" priority="148"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="148" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="147"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="duplicateValues" dxfId="146" priority="144"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="duplicateValues" dxfId="145" priority="141"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="duplicateValues" dxfId="144" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="143"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="duplicateValues" dxfId="142" priority="140"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="duplicateValues" dxfId="141" priority="124"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
+    <cfRule type="duplicateValues" dxfId="140" priority="125"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60">
+    <cfRule type="duplicateValues" dxfId="139" priority="116"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J60">
+    <cfRule type="duplicateValues" dxfId="138" priority="117"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J62">
+    <cfRule type="duplicateValues" dxfId="137" priority="114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="duplicateValues" dxfId="136" priority="115"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="duplicateValues" dxfId="135" priority="112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J63">
+    <cfRule type="duplicateValues" dxfId="134" priority="113"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J64">
+    <cfRule type="duplicateValues" dxfId="133" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="duplicateValues" dxfId="132" priority="111"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="duplicateValues" dxfId="131" priority="108"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J66">
+    <cfRule type="duplicateValues" dxfId="130" priority="109"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69">
+    <cfRule type="duplicateValues" dxfId="129" priority="106"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J69">
+    <cfRule type="duplicateValues" dxfId="128" priority="107"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J70">
+    <cfRule type="duplicateValues" dxfId="127" priority="104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="duplicateValues" dxfId="126" priority="105"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="duplicateValues" dxfId="125" priority="102"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J72">
+    <cfRule type="duplicateValues" dxfId="124" priority="103"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J73">
+    <cfRule type="duplicateValues" dxfId="123" priority="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="duplicateValues" dxfId="122" priority="101"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="duplicateValues" dxfId="121" priority="98"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J75">
+    <cfRule type="duplicateValues" dxfId="120" priority="99"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J76">
+    <cfRule type="duplicateValues" dxfId="119" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="duplicateValues" dxfId="118" priority="97"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53:J54">
+    <cfRule type="duplicateValues" dxfId="117" priority="832"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53:H54">
+    <cfRule type="duplicateValues" dxfId="116" priority="833"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J61">
+    <cfRule type="duplicateValues" dxfId="115" priority="92"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="duplicateValues" dxfId="114" priority="93"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J65">
+    <cfRule type="duplicateValues" dxfId="113" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="duplicateValues" dxfId="112" priority="91"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J68">
+    <cfRule type="duplicateValues" dxfId="111" priority="88"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="duplicateValues" dxfId="110" priority="89"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J71">
+    <cfRule type="duplicateValues" dxfId="109" priority="86"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="duplicateValues" dxfId="108" priority="87"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J74">
+    <cfRule type="duplicateValues" dxfId="107" priority="84"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
+    <cfRule type="duplicateValues" dxfId="106" priority="85"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J77">
+    <cfRule type="duplicateValues" dxfId="105" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="duplicateValues" dxfId="104" priority="83"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J79">
+    <cfRule type="duplicateValues" dxfId="103" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="duplicateValues" dxfId="102" priority="81"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="duplicateValues" dxfId="101" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="duplicateValues" dxfId="100" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="duplicateValues" dxfId="99" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="duplicateValues" dxfId="97" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="duplicateValues" dxfId="96" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J82">
+    <cfRule type="duplicateValues" dxfId="94" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="duplicateValues" dxfId="93" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J85">
+    <cfRule type="duplicateValues" dxfId="92" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J83">
+    <cfRule type="duplicateValues" dxfId="91" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83">
+    <cfRule type="duplicateValues" dxfId="90" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J84">
+    <cfRule type="duplicateValues" dxfId="89" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H84">
+    <cfRule type="duplicateValues" dxfId="88" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J86">
+    <cfRule type="duplicateValues" dxfId="87" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H86">
+    <cfRule type="duplicateValues" dxfId="86" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H85">
+    <cfRule type="duplicateValues" dxfId="85" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J81">
+    <cfRule type="duplicateValues" dxfId="84" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="duplicateValues" dxfId="83" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J87">
+    <cfRule type="duplicateValues" dxfId="82" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87">
+    <cfRule type="duplicateValues" dxfId="81" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J88">
+    <cfRule type="duplicateValues" dxfId="80" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H88">
+    <cfRule type="duplicateValues" dxfId="79" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J89">
+    <cfRule type="duplicateValues" dxfId="78" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H89">
+    <cfRule type="duplicateValues" dxfId="77" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J94">
+    <cfRule type="duplicateValues" dxfId="76" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H94">
+    <cfRule type="duplicateValues" dxfId="75" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="duplicateValues" dxfId="74" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="duplicateValues" dxfId="73" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="duplicateValues" dxfId="72" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:H20">
+    <cfRule type="duplicateValues" dxfId="71" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="duplicateValues" dxfId="70" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="duplicateValues" dxfId="69" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="duplicateValues" dxfId="68" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="duplicateValues" dxfId="66" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="duplicateValues" dxfId="65" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="duplicateValues" dxfId="64" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="duplicateValues" dxfId="141" priority="733"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="duplicateValues" dxfId="140" priority="734"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="duplicateValues" dxfId="139" priority="661"/>
+  <conditionalFormatting sqref="J24">
+    <cfRule type="duplicateValues" dxfId="61" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
-    <cfRule type="duplicateValues" dxfId="138" priority="662"/>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="duplicateValues" dxfId="60" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
-    <cfRule type="duplicateValues" dxfId="137" priority="488"/>
+  <conditionalFormatting sqref="J26">
+    <cfRule type="duplicateValues" dxfId="59" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="duplicateValues" dxfId="136" priority="489"/>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="duplicateValues" dxfId="58" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="duplicateValues" dxfId="135" priority="292"/>
+  <conditionalFormatting sqref="J28">
+    <cfRule type="duplicateValues" dxfId="57" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="duplicateValues" dxfId="134" priority="293"/>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="duplicateValues" dxfId="56" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J43">
-    <cfRule type="duplicateValues" dxfId="133" priority="290"/>
+  <conditionalFormatting sqref="J56">
+    <cfRule type="duplicateValues" dxfId="55" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="duplicateValues" dxfId="132" priority="291"/>
+  <conditionalFormatting sqref="J57:J58">
+    <cfRule type="duplicateValues" dxfId="54" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J21:J22">
-    <cfRule type="duplicateValues" dxfId="131" priority="288"/>
+  <conditionalFormatting sqref="H57:H58">
+    <cfRule type="duplicateValues" dxfId="53" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21:H22">
-    <cfRule type="duplicateValues" dxfId="130" priority="289"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="duplicateValues" dxfId="129" priority="282"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
-    <cfRule type="duplicateValues" dxfId="128" priority="283"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
-    <cfRule type="duplicateValues" dxfId="127" priority="252"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="duplicateValues" dxfId="126" priority="253"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="duplicateValues" dxfId="125" priority="170"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="duplicateValues" dxfId="124" priority="171"/>
-    <cfRule type="duplicateValues" dxfId="123" priority="172"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
-    <cfRule type="duplicateValues" dxfId="122" priority="168"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="duplicateValues" dxfId="121" priority="169"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J56 J67 J69">
-    <cfRule type="duplicateValues" dxfId="120" priority="126"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56 H67:I67 H69">
-    <cfRule type="duplicateValues" dxfId="119" priority="127"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="118" priority="120"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="117" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="122"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="duplicateValues" dxfId="115" priority="119"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H7">
-    <cfRule type="duplicateValues" dxfId="114" priority="123"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="113" priority="115"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="duplicateValues" dxfId="112" priority="118"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="111" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="117"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="duplicateValues" dxfId="109" priority="114"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="108" priority="111"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="107" priority="112"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="113"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="duplicateValues" dxfId="105" priority="110"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="duplicateValues" dxfId="104" priority="108"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="duplicateValues" dxfId="103" priority="109"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="duplicateValues" dxfId="102" priority="94"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J46">
-    <cfRule type="duplicateValues" dxfId="101" priority="95"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="duplicateValues" dxfId="100" priority="86"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
-    <cfRule type="duplicateValues" dxfId="99" priority="87"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J51">
-    <cfRule type="duplicateValues" dxfId="98" priority="84"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="duplicateValues" dxfId="97" priority="85"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="duplicateValues" dxfId="96" priority="82"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="duplicateValues" dxfId="95" priority="83"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J53">
-    <cfRule type="duplicateValues" dxfId="94" priority="80"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="duplicateValues" dxfId="93" priority="81"/>
+  <conditionalFormatting sqref="J55">
+    <cfRule type="duplicateValues" dxfId="52" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="duplicateValues" dxfId="92" priority="78"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J55">
-    <cfRule type="duplicateValues" dxfId="91" priority="79"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="duplicateValues" dxfId="90" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J58">
-    <cfRule type="duplicateValues" dxfId="89" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J59">
-    <cfRule type="duplicateValues" dxfId="88" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="duplicateValues" dxfId="87" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
-    <cfRule type="duplicateValues" dxfId="86" priority="72"/>
+  <conditionalFormatting sqref="J97">
+    <cfRule type="duplicateValues" dxfId="48" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J61">
-    <cfRule type="duplicateValues" dxfId="85" priority="73"/>
+  <conditionalFormatting sqref="H97">
+    <cfRule type="duplicateValues" dxfId="47" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J62">
-    <cfRule type="duplicateValues" dxfId="84" priority="70"/>
+  <conditionalFormatting sqref="J98">
+    <cfRule type="duplicateValues" dxfId="46" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="duplicateValues" dxfId="83" priority="71"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="duplicateValues" dxfId="82" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J64">
-    <cfRule type="duplicateValues" dxfId="81" priority="69"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J65">
-    <cfRule type="duplicateValues" dxfId="80" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="duplicateValues" dxfId="79" priority="67"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47:J48">
-    <cfRule type="duplicateValues" dxfId="78" priority="802"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47:H48">
-    <cfRule type="duplicateValues" dxfId="77" priority="803"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
-    <cfRule type="duplicateValues" dxfId="76" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="duplicateValues" dxfId="75" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
-    <cfRule type="duplicateValues" dxfId="74" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="duplicateValues" dxfId="73" priority="61"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J57">
-    <cfRule type="duplicateValues" dxfId="72" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="duplicateValues" dxfId="71" priority="59"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J60">
-    <cfRule type="duplicateValues" dxfId="70" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="duplicateValues" dxfId="69" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63">
-    <cfRule type="duplicateValues" dxfId="68" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="duplicateValues" dxfId="67" priority="55"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J66">
-    <cfRule type="duplicateValues" dxfId="66" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="duplicateValues" dxfId="65" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J68">
-    <cfRule type="duplicateValues" dxfId="64" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="duplicateValues" dxfId="63" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
-    <cfRule type="duplicateValues" dxfId="62" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="61" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="60" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="58" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="duplicateValues" dxfId="57" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J71">
-    <cfRule type="duplicateValues" dxfId="55" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="duplicateValues" dxfId="54" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J74">
-    <cfRule type="duplicateValues" dxfId="53" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J72">
-    <cfRule type="duplicateValues" dxfId="52" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="duplicateValues" dxfId="51" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J73">
-    <cfRule type="duplicateValues" dxfId="50" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
-    <cfRule type="duplicateValues" dxfId="49" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J75">
-    <cfRule type="duplicateValues" dxfId="48" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="duplicateValues" dxfId="47" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
-    <cfRule type="duplicateValues" dxfId="46" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J70">
-    <cfRule type="duplicateValues" dxfId="45" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="duplicateValues" dxfId="44" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J76">
-    <cfRule type="duplicateValues" dxfId="43" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="duplicateValues" dxfId="42" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J77">
-    <cfRule type="duplicateValues" dxfId="41" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="duplicateValues" dxfId="40" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J78">
-    <cfRule type="duplicateValues" dxfId="39" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="duplicateValues" dxfId="38" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J83">
-    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
-    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
+  <conditionalFormatting sqref="H98">
+    <cfRule type="duplicateValues" dxfId="45" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" sqref="I18 I2:I3 I5 I8 I12 I14 I16 I20:I23 I25 I27 I29 I33 I35 I37 I39 I41 I43 I45 I47 I51 I53 I56 I59 I62 I65 I10 I81 I85:I86 I88 I90:I91 I69 I79 I71 I73 I75 I77 I83" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" sqref="I2:I3 I5 I8 I12 I14 I31 I33 I35 I39 I41 I43 I45 I47 I49 I51 I53 I62 I64 I67 I70 I73 I76 I10 I92 I59 I102 I104:I105 I80 I90 I82 I84 I86 I88 I97:I100 I16:I17 I26 I19 I21 I23:I24 I28:I29 I57 I55 I94" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F1:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23000,10 +23955,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet28"/>
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -23037,7 +23992,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
@@ -23065,7 +24020,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -23101,13 +24056,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>24</v>
@@ -23115,13 +24070,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>24</v>
@@ -23149,7 +24104,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>24</v>
@@ -23157,13 +24112,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>24</v>
@@ -23177,7 +24132,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>24</v>
@@ -23185,13 +24140,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>24</v>
@@ -23199,13 +24154,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>24</v>
@@ -23213,13 +24168,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>24</v>
@@ -23227,13 +24182,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>24</v>
@@ -23241,13 +24196,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>24</v>
@@ -23255,13 +24210,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>24</v>
@@ -23269,13 +24224,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>24</v>
@@ -23283,13 +24238,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>24</v>
@@ -23303,7 +24258,7 @@
         <v>33</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>24</v>
@@ -23311,13 +24266,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>24</v>
@@ -23325,13 +24280,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>24</v>
@@ -23339,13 +24294,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>24</v>
@@ -23353,13 +24308,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>24</v>
@@ -23367,13 +24322,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>24</v>
@@ -23381,13 +24336,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>24</v>
@@ -23395,13 +24350,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>24</v>
@@ -23409,13 +24364,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>24</v>
@@ -23423,13 +24378,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>24</v>
@@ -23437,13 +24392,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>24</v>
@@ -23451,13 +24406,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>24</v>
@@ -23465,13 +24420,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>24</v>
@@ -23479,13 +24434,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>24</v>
@@ -23493,13 +24448,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>24</v>
@@ -23507,13 +24462,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>24</v>
@@ -23521,13 +24476,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>24</v>
@@ -23535,13 +24490,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>24</v>
@@ -23549,13 +24504,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>24</v>
@@ -23563,13 +24518,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>24</v>
@@ -23577,13 +24532,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>24</v>
@@ -23591,13 +24546,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>24</v>
@@ -23605,13 +24560,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>24</v>
@@ -23619,13 +24574,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>24</v>
@@ -23633,13 +24588,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>24</v>
@@ -23647,13 +24602,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>24</v>
@@ -23661,13 +24616,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>24</v>
@@ -23675,13 +24630,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>24</v>
@@ -23689,13 +24644,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>24</v>
@@ -23703,13 +24658,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>24</v>
@@ -23717,13 +24672,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>24</v>
@@ -23731,13 +24686,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>24</v>
@@ -23745,13 +24700,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>24</v>
@@ -23759,13 +24714,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>24</v>
@@ -23773,13 +24728,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>24</v>
@@ -23787,13 +24742,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>24</v>
@@ -23801,13 +24756,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>24</v>
@@ -23815,13 +24770,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>24</v>
@@ -23829,13 +24784,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>24</v>
@@ -23843,13 +24798,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>24</v>
@@ -23857,13 +24812,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>24</v>
@@ -23871,13 +24826,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>24</v>
@@ -23885,13 +24840,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>24</v>
@@ -23899,13 +24854,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>24</v>
@@ -23913,13 +24868,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>24</v>
@@ -23927,13 +24882,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>24</v>
@@ -23941,13 +24896,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>24</v>
@@ -23955,13 +24910,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>24</v>
@@ -23969,13 +24924,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>24</v>
@@ -23983,13 +24938,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>24</v>
@@ -23997,13 +24952,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>24</v>
@@ -24011,13 +24966,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>24</v>
@@ -24025,13 +24980,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>24</v>
@@ -24039,13 +24994,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>24</v>
@@ -24053,13 +25008,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>24</v>
@@ -24067,13 +25022,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>24</v>
@@ -24081,13 +25036,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>24</v>
@@ -24095,13 +25050,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>24</v>
@@ -24109,13 +25064,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>24</v>
@@ -24123,13 +25078,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>24</v>
@@ -24137,13 +25092,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>24</v>
@@ -24151,13 +25106,13 @@
     </row>
     <row r="82" spans="1:4" ht="12" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>24</v>
@@ -24165,13 +25120,13 @@
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>24</v>
@@ -24179,13 +25134,13 @@
     </row>
     <row r="84" spans="1:4" ht="12" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>24</v>
@@ -24193,13 +25148,13 @@
     </row>
     <row r="85" spans="1:4" ht="12" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>24</v>
@@ -24207,13 +25162,13 @@
     </row>
     <row r="86" spans="1:4" ht="12" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>24</v>
@@ -24221,13 +25176,13 @@
     </row>
     <row r="87" spans="1:4" ht="12" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>24</v>
@@ -24235,13 +25190,13 @@
     </row>
     <row r="88" spans="1:4" ht="12" customHeight="1">
       <c r="A88" s="4" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>24</v>
@@ -24249,13 +25204,13 @@
     </row>
     <row r="89" spans="1:4" ht="12" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>24</v>
@@ -24263,13 +25218,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>24</v>
@@ -24277,13 +25232,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>24</v>
@@ -24291,13 +25246,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>24</v>
@@ -24305,13 +25260,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>24</v>
@@ -24319,13 +25274,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>24</v>
@@ -24333,13 +25288,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>24</v>
@@ -24347,13 +25302,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>24</v>
@@ -24361,13 +25316,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>24</v>
@@ -24375,13 +25330,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>24</v>
@@ -24389,13 +25344,13 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>24</v>
@@ -24403,13 +25358,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>24</v>
@@ -24417,13 +25372,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>24</v>
@@ -24431,13 +25386,13 @@
     </row>
     <row r="102" spans="1:4" ht="25">
       <c r="A102" s="2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>24</v>
@@ -24445,13 +25400,13 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>24</v>
@@ -24459,13 +25414,13 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>24</v>
@@ -24473,13 +25428,13 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>24</v>
@@ -24487,13 +25442,13 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>24</v>
@@ -24501,13 +25456,13 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>24</v>
@@ -24515,13 +25470,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>24</v>
@@ -24529,13 +25484,13 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>24</v>
@@ -24543,13 +25498,13 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>24</v>
@@ -24557,13 +25512,13 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>24</v>
@@ -24571,13 +25526,13 @@
     </row>
     <row r="112" spans="1:4" s="8" customFormat="1">
       <c r="A112" s="4" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>24</v>
@@ -24585,13 +25540,13 @@
     </row>
     <row r="113" spans="1:4" s="8" customFormat="1">
       <c r="A113" s="2" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>24</v>
@@ -24599,13 +25554,13 @@
     </row>
     <row r="114" spans="1:4" s="8" customFormat="1">
       <c r="A114" s="2" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>24</v>
@@ -24613,13 +25568,13 @@
     </row>
     <row r="115" spans="1:4" s="8" customFormat="1">
       <c r="A115" s="2" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>24</v>
@@ -24627,15 +25582,85 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" s="8" customFormat="1">
+      <c r="A118" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" s="8" customFormat="1">
+      <c r="A119" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" s="8" customFormat="1">
+      <c r="A120" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" s="8" customFormat="1">
+      <c r="A121" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" s="8" customFormat="1">
+      <c r="A122" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -24644,90 +25669,111 @@
     <sortCondition ref="D2:D10"/>
   </sortState>
   <conditionalFormatting sqref="A21">
+    <cfRule type="duplicateValues" dxfId="44" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="duplicateValues" dxfId="43" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:A20">
+    <cfRule type="duplicateValues" dxfId="41" priority="206"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:A20">
+    <cfRule type="duplicateValues" dxfId="40" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="209"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68:A81 A1:A15 A22:A37 A90:A94 A49:A65 A39:A46 A96:A100 A102:A111 A117 A123:A1048576">
+    <cfRule type="duplicateValues" dxfId="38" priority="428"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68:A81 A1:A15 A22:A37 A90:A94 A49:A65 A39:A46 A96:A100 A102:A111 A117 A123:A1048576">
+    <cfRule type="duplicateValues" dxfId="37" priority="431"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="432"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:A67">
     <cfRule type="duplicateValues" dxfId="35" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21">
+  <conditionalFormatting sqref="A66:A67">
     <cfRule type="duplicateValues" dxfId="34" priority="41"/>
     <cfRule type="duplicateValues" dxfId="33" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:A20">
-    <cfRule type="duplicateValues" dxfId="32" priority="194"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:A20">
-    <cfRule type="duplicateValues" dxfId="31" priority="196"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="197"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:A81 A1:A15 A22:A37 A90:A94 A49:A65 A39:A46 A96:A100 A102:A111 A117:A1048576">
-    <cfRule type="duplicateValues" dxfId="29" priority="416"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68:A81 A1:A15 A22:A37 A90:A94 A49:A65 A39:A46 A96:A100 A102:A111 A117:A1048576">
-    <cfRule type="duplicateValues" dxfId="28" priority="419"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="420"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:A67">
-    <cfRule type="duplicateValues" dxfId="26" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:A67">
-    <cfRule type="duplicateValues" dxfId="25" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="30"/>
+  <conditionalFormatting sqref="A82:A89">
+    <cfRule type="duplicateValues" dxfId="32" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:A89">
-    <cfRule type="duplicateValues" dxfId="23" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82:A89">
-    <cfRule type="duplicateValues" dxfId="22" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
+    <cfRule type="duplicateValues" dxfId="29" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="duplicateValues" dxfId="28" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48">
+    <cfRule type="duplicateValues" dxfId="26" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48">
+    <cfRule type="duplicateValues" dxfId="25" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="duplicateValues" dxfId="23" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="duplicateValues" dxfId="22" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95">
     <cfRule type="duplicateValues" dxfId="20" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
+  <conditionalFormatting sqref="A95">
     <cfRule type="duplicateValues" dxfId="19" priority="23"/>
     <cfRule type="duplicateValues" dxfId="18" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
+  <conditionalFormatting sqref="A101">
     <cfRule type="duplicateValues" dxfId="17" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
+  <conditionalFormatting sqref="A101">
     <cfRule type="duplicateValues" dxfId="16" priority="20"/>
     <cfRule type="duplicateValues" dxfId="15" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
+  <conditionalFormatting sqref="A112">
     <cfRule type="duplicateValues" dxfId="14" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
+  <conditionalFormatting sqref="A112">
     <cfRule type="duplicateValues" dxfId="13" priority="17"/>
     <cfRule type="duplicateValues" dxfId="12" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A95">
-    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+  <conditionalFormatting sqref="A113">
+    <cfRule type="duplicateValues" dxfId="11" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A95">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
+  <conditionalFormatting sqref="A114">
+    <cfRule type="duplicateValues" dxfId="10" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A101">
+  <conditionalFormatting sqref="A115">
+    <cfRule type="duplicateValues" dxfId="9" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A118">
     <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A101">
+  <conditionalFormatting sqref="A118">
     <cfRule type="duplicateValues" dxfId="7" priority="8"/>
     <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A112">
+  <conditionalFormatting sqref="A119:A120">
     <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A112">
+  <conditionalFormatting sqref="A119:A120">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
     <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A113">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  <conditionalFormatting sqref="A122">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A114">
+  <conditionalFormatting sqref="A122">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A115">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" sqref="I2:I3" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
